--- a/src/test/resources/TutorialsNinja.xlsx
+++ b/src/test/resources/TutorialsNinja.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7392F17D-1D9F-4589-8861-0ADD75E14BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D74C72E-1005-4DA8-B679-681507BBD02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -399,8 +399,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -742,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,7 +806,7 @@
       <c r="A7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -812,8 +814,8 @@
       <c r="A8" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>2</v>
+      <c r="B8" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -823,10 +825,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,12 +844,12 @@
     <col min="19" max="19" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -864,14 +866,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="6">
@@ -881,7 +883,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -898,7 +900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -915,12 +917,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -948,28 +950,21 @@
       <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="6">
@@ -990,28 +985,21 @@
       <c r="I9" s="7">
         <v>5</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="2">
+      <c r="J9" s="2">
         <v>5</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="6">
@@ -1032,28 +1020,21 @@
       <c r="I10" s="7">
         <v>2</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="2">
+      <c r="J10" s="2">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="6">
@@ -1074,31 +1055,24 @@
       <c r="I11" s="7">
         <v>2</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="2">
-        <v>3</v>
-      </c>
-      <c r="R11" s="2" t="s">
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="7">
         <v>1234</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1114,26 +1088,19 @@
       <c r="I12" s="7">
         <v>3</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="2">
+      <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1856,7 +1823,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>8</v>
@@ -1897,7 +1864,7 @@
       <c r="N48" s="7">
         <v>1000</v>
       </c>
-      <c r="O48" s="11" t="s">
+      <c r="O48" s="10" t="s">
         <v>88</v>
       </c>
       <c r="P48" s="7" t="s">
@@ -1909,7 +1876,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>8</v>
@@ -1950,7 +1917,7 @@
       <c r="N49" s="7">
         <v>1000</v>
       </c>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="10" t="s">
         <v>88</v>
       </c>
       <c r="P49" s="7" t="s">
@@ -1962,7 +1929,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>11</v>
